--- a/inst/extdata/agmip_protocol_example.xlsx
+++ b/inst/extdata/agmip_protocol_example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A71C3A-A64E-4DEC-A9DA-FE94D7B1880E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375783E-E0FA-45EB-8261-75B943F548DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10908" tabRatio="414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" tabRatio="414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -147,11 +147,6 @@
   </si>
   <si>
     <t>You can add extra sheets for your own notes or additional information. CroptimizR will only process the recognized sheets (variables, major_parameters, candidate_parameters, fixed_or_computed_parameters) and will ignore any others.</t>
-  </si>
-  <si>
-    <t>The order of the groups defines the order of the associated calibration steps in step 6 of the AgMIP protocol.
-Currently, variable names for observed and simulated variables must be identical.
-Column description is optional (not used by CroptimizR), the other are required.</t>
   </si>
   <si>
     <t>iamfs</t>
@@ -428,6 +423,12 @@
   </si>
   <si>
     <t>For full documentation, see: vignette("agmip_calibration_protocol", package = "CroptimizR")</t>
+  </si>
+  <si>
+    <t>The order of the groups defines the order of the associated calibration steps in step 6 of the AgMIP protocol.
+Group names can be freely chosen by the user.
+At present, the names of observed and simulated variables must be identical and must match the variable names returned by the model wrapper.
+Column description is optional (not used by CroptimizR), the other are required.</t>
   </si>
 </sst>
 </file>
@@ -833,52 +834,52 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="72.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -898,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -915,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -938,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
@@ -958,7 +959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
@@ -991,14 +992,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,92 +1010,92 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1111,19 +1112,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1143,12 +1144,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>324.8</v>
@@ -1160,15 +1161,15 @@
         <v>400</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>446.8</v>
@@ -1180,15 +1181,15 @@
         <v>500</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5">
         <v>820</v>
@@ -1200,15 +1201,15 @@
         <v>900</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>5.3</v>
@@ -1220,15 +1221,15 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>3.5</v>
@@ -1240,15 +1241,15 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>0.08</v>
@@ -1260,15 +1261,15 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>3.2399999999999998E-2</v>
@@ -1280,15 +1281,15 @@
         <v>0.04</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>3.1E-4</v>
@@ -1300,15 +1301,15 @@
         <v>2E-3</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>6.4000000000000003E-3</v>
@@ -1320,7 +1321,7 @@
         <v>0.04</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1337,18 +1338,18 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1368,12 +1369,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>58.363999999999997</v>
@@ -1385,15 +1386,15 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -1405,15 +1406,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2.2800000000000001E-2</v>
@@ -1425,15 +1426,15 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>11.8</v>
@@ -1445,15 +1446,15 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1465,15 +1466,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>3.1879999999999999E-3</v>
@@ -1485,15 +1486,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>260</v>
@@ -1505,16 +1506,16 @@
         <v>300</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>2.38</v>
@@ -1526,16 +1527,16 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>12.6</v>
@@ -1547,16 +1548,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>10.6</v>
@@ -1568,16 +1569,16 @@
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>0.34799999999999998</v>
@@ -1589,15 +1590,15 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>632</v>
@@ -1609,15 +1610,15 @@
         <v>1000</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>36</v>
@@ -1629,15 +1630,15 @@
         <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>5.5280000000000003E-2</v>
@@ -1649,15 +1650,15 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>4.2000000000000003E-2</v>
@@ -1669,7 +1670,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1686,15 +1687,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="5" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1709,100 +1710,100 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
